--- a/Project/Excel Work Sample/Report Analysis.xlsx
+++ b/Project/Excel Work Sample/Report Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,37 +19,34 @@
     <sheet name="9" sheetId="11" r:id="rId10"/>
     <sheet name="10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">'6'!$P$5:$P$304</definedName>
-    <definedName name="_xlchart.1" hidden="1">'6'!$N$5:$N$304</definedName>
+    <definedName name="_xlchart.0" hidden="1">'6'!$N$5:$N$304</definedName>
+    <definedName name="_xlchart.1" hidden="1">'6'!$P$5:$P$304</definedName>
     <definedName name="_xlchart.2" hidden="1">'6'!$P$5:$P$304</definedName>
-    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata1" hidden="1">data[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata" hidden="1">data[]</definedName>
     <definedName name="Slicer_Geography">#N/A</definedName>
     <definedName name="Slicer_Geography1">#N/A</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="50" r:id="rId14"/>
-    <pivotCache cacheId="53" r:id="rId15"/>
-    <pivotCache cacheId="111" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="49" r:id="rId17"/>
-        <pivotCache cacheId="54" r:id="rId18"/>
+        <pivotCache cacheId="4" r:id="rId16"/>
+        <pivotCache cacheId="5" r:id="rId17"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId18"/>
         <x14:slicerCache r:id="rId19"/>
         <x14:slicerCache r:id="rId20"/>
-        <x14:slicerCache r:id="rId21"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -84,7 +81,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="data" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -867,15 +864,6 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,11 +874,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1316,29 +1336,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3645,7 +3642,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.0</cx:f>
+        <cx:f>_xlchart.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3707,10 +3704,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.2</cx:f>
+        <cx:f>_xlchart.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5702,8 +5699,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Geography 1"/>
@@ -5720,7 +5717,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5762,39 +5759,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="QS"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="Sheet7"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Company Data Analysis"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9048,7 +9012,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9057,14 +9021,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="10">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -9095,7 +9059,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" measureFilter="1" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -9183,6 +9147,111 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I4:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -9287,113 +9356,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I4:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="11">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 top="0" val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:D27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="descending" defaultAttributeDrillState="1">
@@ -9554,7 +9518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:F24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
@@ -9878,10 +9842,10 @@
     <tableColumn id="3" name="Product" dataDxfId="28"/>
     <tableColumn id="4" name="Amount" dataDxfId="27"/>
     <tableColumn id="5" name="Units" dataDxfId="26"/>
-    <tableColumn id="6" name="Cost per Unit" dataDxfId="25">
-      <calculatedColumnFormula>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</calculatedColumnFormula>
+    <tableColumn id="6" name="Cost per Unit" dataDxfId="0">
+      <calculatedColumnFormula>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost " dataDxfId="24">
+    <tableColumn id="7" name="Cost " dataDxfId="25">
       <calculatedColumnFormula>data[[#This Row],[Cost per Unit]]*data[[#This Row],[Units]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9890,40 +9854,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="products" displayName="products" ref="S3:T25" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="products" displayName="products" ref="S3:T25" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="S3:T25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Cost per unit" dataDxfId="22"/>
+    <tableColumn id="2" name="Cost per unit" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="data3" displayName="data3" ref="B3:G303" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="data3" displayName="data3" ref="B3:G303" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="6">
-    <tableColumn id="1" name="Sales Person" dataDxfId="17"/>
-    <tableColumn id="2" name="Geography" dataDxfId="16"/>
-    <tableColumn id="3" name="Product" dataDxfId="15"/>
-    <tableColumn id="4" name="Amount" dataDxfId="14"/>
-    <tableColumn id="7" name="Bar" dataDxfId="13">
+    <tableColumn id="1" name="Sales Person" dataDxfId="18"/>
+    <tableColumn id="2" name="Geography" dataDxfId="17"/>
+    <tableColumn id="3" name="Product" dataDxfId="16"/>
+    <tableColumn id="4" name="Amount" dataDxfId="15"/>
+    <tableColumn id="7" name="Bar" dataDxfId="14">
       <calculatedColumnFormula>data3[[#This Row],[Amount]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Units" dataDxfId="12"/>
+    <tableColumn id="5" name="Units" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="data4" displayName="data4" ref="M4:Q304" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="data4" displayName="data4" ref="M4:Q304" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" name="Sales Person" dataDxfId="4"/>
-    <tableColumn id="2" name="Geography" dataDxfId="3"/>
-    <tableColumn id="3" name="Product" dataDxfId="2"/>
-    <tableColumn id="4" name="Amount" dataDxfId="1"/>
-    <tableColumn id="5" name="Units" dataDxfId="0"/>
+    <tableColumn id="1" name="Sales Person" dataDxfId="5"/>
+    <tableColumn id="2" name="Geography" dataDxfId="4"/>
+    <tableColumn id="3" name="Product" dataDxfId="3"/>
+    <tableColumn id="4" name="Amount" dataDxfId="2"/>
+    <tableColumn id="5" name="Units" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10194,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10268,7 +10232,7 @@
         <v>114</v>
       </c>
       <c r="G4" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H4" s="13">
@@ -10305,7 +10269,7 @@
         <v>459</v>
       </c>
       <c r="G5" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H5" s="13">
@@ -10342,7 +10306,7 @@
         <v>147</v>
       </c>
       <c r="G6" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H6" s="13">
@@ -10379,7 +10343,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H7" s="13">
@@ -10416,7 +10380,7 @@
         <v>414</v>
       </c>
       <c r="G8" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H8" s="13">
@@ -10453,7 +10417,7 @@
         <v>432</v>
       </c>
       <c r="G9" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H9" s="13">
@@ -10490,7 +10454,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H10" s="13">
@@ -10527,7 +10491,7 @@
         <v>210</v>
       </c>
       <c r="G11" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H11" s="13">
@@ -10564,7 +10528,7 @@
         <v>75</v>
       </c>
       <c r="G12" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H12" s="13">
@@ -10601,7 +10565,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H13" s="13">
@@ -10638,7 +10602,7 @@
         <v>462</v>
       </c>
       <c r="G14" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H14" s="13">
@@ -10669,7 +10633,7 @@
         <v>144</v>
       </c>
       <c r="G15" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H15" s="13">
@@ -10700,7 +10664,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H16" s="13">
@@ -10731,7 +10695,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H17" s="13">
@@ -10762,7 +10726,7 @@
         <v>234</v>
       </c>
       <c r="G18" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H18" s="13">
@@ -10793,7 +10757,7 @@
         <v>66</v>
       </c>
       <c r="G19" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H19" s="13">
@@ -10824,7 +10788,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H20" s="13">
@@ -10855,7 +10819,7 @@
         <v>339</v>
       </c>
       <c r="G21" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H21" s="13">
@@ -10886,7 +10850,7 @@
         <v>144</v>
       </c>
       <c r="G22" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H22" s="13">
@@ -10917,7 +10881,7 @@
         <v>162</v>
       </c>
       <c r="G23" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H23" s="13">
@@ -10948,7 +10912,7 @@
         <v>90</v>
       </c>
       <c r="G24" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H24" s="13">
@@ -10979,7 +10943,7 @@
         <v>234</v>
       </c>
       <c r="G25" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H25" s="13">
@@ -11010,7 +10974,7 @@
         <v>141</v>
       </c>
       <c r="G26" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H26" s="13">
@@ -11035,7 +10999,7 @@
         <v>204</v>
       </c>
       <c r="G27" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H27" s="13">
@@ -11060,7 +11024,7 @@
         <v>186</v>
       </c>
       <c r="G28" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H28" s="13">
@@ -11085,7 +11049,7 @@
         <v>231</v>
       </c>
       <c r="G29" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H29" s="13">
@@ -11110,7 +11074,7 @@
         <v>168</v>
       </c>
       <c r="G30" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H30" s="13">
@@ -11135,7 +11099,7 @@
         <v>195</v>
       </c>
       <c r="G31" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H31" s="13">
@@ -11160,7 +11124,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H32" s="13">
@@ -11185,7 +11149,7 @@
         <v>30</v>
       </c>
       <c r="G33" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H33" s="13">
@@ -11210,7 +11174,7 @@
         <v>102</v>
       </c>
       <c r="G34" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H34" s="13">
@@ -11235,7 +11199,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H35" s="13">
@@ -11260,7 +11224,7 @@
         <v>183</v>
       </c>
       <c r="G36" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H36" s="13">
@@ -11285,7 +11249,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H37" s="13">
@@ -11310,7 +11274,7 @@
         <v>72</v>
       </c>
       <c r="G38" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H38" s="13">
@@ -11335,7 +11299,7 @@
         <v>282</v>
       </c>
       <c r="G39" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H39" s="13">
@@ -11360,7 +11324,7 @@
         <v>144</v>
       </c>
       <c r="G40" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H40" s="13">
@@ -11385,7 +11349,7 @@
         <v>405</v>
       </c>
       <c r="G41" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H41" s="13">
@@ -11410,7 +11374,7 @@
         <v>75</v>
       </c>
       <c r="G42" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H42" s="13">
@@ -11435,7 +11399,7 @@
         <v>135</v>
       </c>
       <c r="G43" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H43" s="13">
@@ -11460,7 +11424,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H44" s="13">
@@ -11485,7 +11449,7 @@
         <v>153</v>
       </c>
       <c r="G45" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H45" s="13">
@@ -11510,7 +11474,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H46" s="13">
@@ -11535,7 +11499,7 @@
         <v>255</v>
       </c>
       <c r="G47" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H47" s="13">
@@ -11560,7 +11524,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H48" s="13">
@@ -11585,7 +11549,7 @@
         <v>189</v>
       </c>
       <c r="G49" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H49" s="13">
@@ -11610,7 +11574,7 @@
         <v>21</v>
       </c>
       <c r="G50" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H50" s="13">
@@ -11635,7 +11599,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H51" s="13">
@@ -11660,7 +11624,7 @@
         <v>75</v>
       </c>
       <c r="G52" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H52" s="13">
@@ -11685,7 +11649,7 @@
         <v>156</v>
       </c>
       <c r="G53" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H53" s="13">
@@ -11710,7 +11674,7 @@
         <v>39</v>
       </c>
       <c r="G54" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H54" s="13">
@@ -11735,7 +11699,7 @@
         <v>63</v>
       </c>
       <c r="G55" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H55" s="13">
@@ -11760,7 +11724,7 @@
         <v>75</v>
       </c>
       <c r="G56" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H56" s="13">
@@ -11785,7 +11749,7 @@
         <v>183</v>
       </c>
       <c r="G57" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H57" s="13">
@@ -11810,7 +11774,7 @@
         <v>69</v>
       </c>
       <c r="G58" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H58" s="13">
@@ -11835,7 +11799,7 @@
         <v>30</v>
       </c>
       <c r="G59" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H59" s="13">
@@ -11860,7 +11824,7 @@
         <v>39</v>
       </c>
       <c r="G60" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H60" s="13">
@@ -11885,7 +11849,7 @@
         <v>504</v>
       </c>
       <c r="G61" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H61" s="13">
@@ -11910,7 +11874,7 @@
         <v>273</v>
       </c>
       <c r="G62" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H62" s="13">
@@ -11935,7 +11899,7 @@
         <v>48</v>
       </c>
       <c r="G63" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H63" s="13">
@@ -11960,7 +11924,7 @@
         <v>207</v>
       </c>
       <c r="G64" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H64" s="13">
@@ -11985,7 +11949,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H65" s="13">
@@ -12010,7 +11974,7 @@
         <v>261</v>
       </c>
       <c r="G66" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H66" s="13">
@@ -12035,7 +11999,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H67" s="13">
@@ -12060,7 +12024,7 @@
         <v>30</v>
       </c>
       <c r="G68" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H68" s="13">
@@ -12085,7 +12049,7 @@
         <v>138</v>
       </c>
       <c r="G69" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H69" s="13">
@@ -12110,7 +12074,7 @@
         <v>111</v>
       </c>
       <c r="G70" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H70" s="13">
@@ -12135,7 +12099,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H71" s="13">
@@ -12160,7 +12124,7 @@
         <v>162</v>
       </c>
       <c r="G72" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H72" s="13">
@@ -12185,7 +12149,7 @@
         <v>195</v>
       </c>
       <c r="G73" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H73" s="13">
@@ -12210,7 +12174,7 @@
         <v>525</v>
       </c>
       <c r="G74" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H74" s="13">
@@ -12235,7 +12199,7 @@
         <v>48</v>
       </c>
       <c r="G75" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H75" s="13">
@@ -12260,7 +12224,7 @@
         <v>150</v>
       </c>
       <c r="G76" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H76" s="13">
@@ -12285,7 +12249,7 @@
         <v>492</v>
       </c>
       <c r="G77" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H77" s="13">
@@ -12310,7 +12274,7 @@
         <v>102</v>
       </c>
       <c r="G78" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H78" s="13">
@@ -12335,7 +12299,7 @@
         <v>165</v>
       </c>
       <c r="G79" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H79" s="13">
@@ -12360,7 +12324,7 @@
         <v>309</v>
       </c>
       <c r="G80" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H80" s="13">
@@ -12385,7 +12349,7 @@
         <v>156</v>
       </c>
       <c r="G81" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H81" s="13">
@@ -12410,7 +12374,7 @@
         <v>159</v>
       </c>
       <c r="G82" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H82" s="13">
@@ -12435,7 +12399,7 @@
         <v>201</v>
       </c>
       <c r="G83" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H83" s="13">
@@ -12460,7 +12424,7 @@
         <v>210</v>
       </c>
       <c r="G84" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H84" s="13">
@@ -12485,7 +12449,7 @@
         <v>51</v>
       </c>
       <c r="G85" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H85" s="13">
@@ -12510,7 +12474,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H86" s="13">
@@ -12535,7 +12499,7 @@
         <v>279</v>
       </c>
       <c r="G87" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H87" s="13">
@@ -12560,7 +12524,7 @@
         <v>123</v>
       </c>
       <c r="G88" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H88" s="13">
@@ -12585,7 +12549,7 @@
         <v>81</v>
       </c>
       <c r="G89" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H89" s="13">
@@ -12610,7 +12574,7 @@
         <v>21</v>
       </c>
       <c r="G90" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H90" s="13">
@@ -12635,7 +12599,7 @@
         <v>162</v>
       </c>
       <c r="G91" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H91" s="13">
@@ -12660,7 +12624,7 @@
         <v>228</v>
       </c>
       <c r="G92" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H92" s="13">
@@ -12685,7 +12649,7 @@
         <v>342</v>
       </c>
       <c r="G93" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H93" s="13">
@@ -12710,7 +12674,7 @@
         <v>54</v>
       </c>
       <c r="G94" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H94" s="13">
@@ -12735,7 +12699,7 @@
         <v>216</v>
       </c>
       <c r="G95" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H95" s="13">
@@ -12760,7 +12724,7 @@
         <v>54</v>
       </c>
       <c r="G96" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H96" s="13">
@@ -12785,7 +12749,7 @@
         <v>75</v>
       </c>
       <c r="G97" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H97" s="13">
@@ -12810,7 +12774,7 @@
         <v>93</v>
       </c>
       <c r="G98" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H98" s="13">
@@ -12835,7 +12799,7 @@
         <v>156</v>
       </c>
       <c r="G99" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H99" s="13">
@@ -12860,7 +12824,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H100" s="13">
@@ -12885,7 +12849,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H101" s="13">
@@ -12910,7 +12874,7 @@
         <v>234</v>
       </c>
       <c r="G102" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H102" s="13">
@@ -12935,7 +12899,7 @@
         <v>312</v>
       </c>
       <c r="G103" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H103" s="13">
@@ -12960,7 +12924,7 @@
         <v>300</v>
       </c>
       <c r="G104" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H104" s="13">
@@ -12985,7 +12949,7 @@
         <v>519</v>
       </c>
       <c r="G105" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H105" s="13">
@@ -13010,7 +12974,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H106" s="13">
@@ -13035,7 +12999,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H107" s="13">
@@ -13060,7 +13024,7 @@
         <v>90</v>
       </c>
       <c r="G108" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H108" s="13">
@@ -13085,7 +13049,7 @@
         <v>96</v>
       </c>
       <c r="G109" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H109" s="13">
@@ -13110,7 +13074,7 @@
         <v>21</v>
       </c>
       <c r="G110" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H110" s="13">
@@ -13135,7 +13099,7 @@
         <v>48</v>
       </c>
       <c r="G111" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H111" s="13">
@@ -13160,7 +13124,7 @@
         <v>72</v>
       </c>
       <c r="G112" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H112" s="13">
@@ -13185,7 +13149,7 @@
         <v>168</v>
       </c>
       <c r="G113" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H113" s="13">
@@ -13210,7 +13174,7 @@
         <v>51</v>
       </c>
       <c r="G114" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H114" s="13">
@@ -13235,7 +13199,7 @@
         <v>192</v>
       </c>
       <c r="G115" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H115" s="13">
@@ -13260,7 +13224,7 @@
         <v>225</v>
       </c>
       <c r="G116" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H116" s="13">
@@ -13285,7 +13249,7 @@
         <v>456</v>
       </c>
       <c r="G117" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H117" s="13">
@@ -13310,7 +13274,7 @@
         <v>93</v>
       </c>
       <c r="G118" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H118" s="13">
@@ -13335,7 +13299,7 @@
         <v>48</v>
       </c>
       <c r="G119" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H119" s="13">
@@ -13360,7 +13324,7 @@
         <v>102</v>
       </c>
       <c r="G120" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H120" s="13">
@@ -13385,7 +13349,7 @@
         <v>252</v>
       </c>
       <c r="G121" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H121" s="13">
@@ -13410,7 +13374,7 @@
         <v>138</v>
       </c>
       <c r="G122" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H122" s="13">
@@ -13435,7 +13399,7 @@
         <v>90</v>
       </c>
       <c r="G123" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H123" s="13">
@@ -13460,7 +13424,7 @@
         <v>240</v>
       </c>
       <c r="G124" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H124" s="13">
@@ -13485,7 +13449,7 @@
         <v>102</v>
       </c>
       <c r="G125" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H125" s="13">
@@ -13510,7 +13474,7 @@
         <v>129</v>
       </c>
       <c r="G126" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H126" s="13">
@@ -13535,7 +13499,7 @@
         <v>300</v>
       </c>
       <c r="G127" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H127" s="13">
@@ -13560,7 +13524,7 @@
         <v>135</v>
       </c>
       <c r="G128" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H128" s="13">
@@ -13585,7 +13549,7 @@
         <v>114</v>
       </c>
       <c r="G129" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H129" s="13">
@@ -13610,7 +13574,7 @@
         <v>63</v>
       </c>
       <c r="G130" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H130" s="13">
@@ -13635,7 +13599,7 @@
         <v>252</v>
       </c>
       <c r="G131" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H131" s="13">
@@ -13660,7 +13624,7 @@
         <v>303</v>
       </c>
       <c r="G132" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H132" s="13">
@@ -13685,7 +13649,7 @@
         <v>246</v>
       </c>
       <c r="G133" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H133" s="13">
@@ -13710,7 +13674,7 @@
         <v>84</v>
       </c>
       <c r="G134" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H134" s="13">
@@ -13735,7 +13699,7 @@
         <v>39</v>
       </c>
       <c r="G135" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H135" s="13">
@@ -13760,7 +13724,7 @@
         <v>348</v>
       </c>
       <c r="G136" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H136" s="13">
@@ -13785,7 +13749,7 @@
         <v>48</v>
       </c>
       <c r="G137" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H137" s="13">
@@ -13810,7 +13774,7 @@
         <v>75</v>
       </c>
       <c r="G138" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H138" s="13">
@@ -13835,7 +13799,7 @@
         <v>258</v>
       </c>
       <c r="G139" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H139" s="13">
@@ -13860,7 +13824,7 @@
         <v>27</v>
       </c>
       <c r="G140" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H140" s="13">
@@ -13885,7 +13849,7 @@
         <v>213</v>
       </c>
       <c r="G141" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H141" s="13">
@@ -13910,7 +13874,7 @@
         <v>357</v>
       </c>
       <c r="G142" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H142" s="13">
@@ -13935,7 +13899,7 @@
         <v>207</v>
       </c>
       <c r="G143" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H143" s="13">
@@ -13960,7 +13924,7 @@
         <v>150</v>
       </c>
       <c r="G144" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H144" s="13">
@@ -13985,7 +13949,7 @@
         <v>204</v>
       </c>
       <c r="G145" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H145" s="13">
@@ -14010,7 +13974,7 @@
         <v>21</v>
       </c>
       <c r="G146" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H146" s="13">
@@ -14035,7 +13999,7 @@
         <v>174</v>
       </c>
       <c r="G147" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H147" s="13">
@@ -14060,7 +14024,7 @@
         <v>201</v>
       </c>
       <c r="G148" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H148" s="13">
@@ -14085,7 +14049,7 @@
         <v>510</v>
       </c>
       <c r="G149" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H149" s="13">
@@ -14110,7 +14074,7 @@
         <v>378</v>
       </c>
       <c r="G150" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H150" s="13">
@@ -14135,7 +14099,7 @@
         <v>27</v>
       </c>
       <c r="G151" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H151" s="13">
@@ -14160,7 +14124,7 @@
         <v>117</v>
       </c>
       <c r="G152" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H152" s="13">
@@ -14185,7 +14149,7 @@
         <v>36</v>
       </c>
       <c r="G153" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H153" s="13">
@@ -14210,7 +14174,7 @@
         <v>126</v>
       </c>
       <c r="G154" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H154" s="13">
@@ -14235,7 +14199,7 @@
         <v>72</v>
       </c>
       <c r="G155" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H155" s="13">
@@ -14260,7 +14224,7 @@
         <v>42</v>
       </c>
       <c r="G156" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H156" s="13">
@@ -14285,7 +14249,7 @@
         <v>135</v>
       </c>
       <c r="G157" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H157" s="13">
@@ -14310,7 +14274,7 @@
         <v>189</v>
       </c>
       <c r="G158" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H158" s="13">
@@ -14335,7 +14299,7 @@
         <v>459</v>
       </c>
       <c r="G159" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H159" s="13">
@@ -14360,7 +14324,7 @@
         <v>201</v>
       </c>
       <c r="G160" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H160" s="13">
@@ -14385,7 +14349,7 @@
         <v>366</v>
       </c>
       <c r="G161" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H161" s="13">
@@ -14410,7 +14374,7 @@
         <v>324</v>
       </c>
       <c r="G162" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H162" s="13">
@@ -14435,7 +14399,7 @@
         <v>243</v>
       </c>
       <c r="G163" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H163" s="13">
@@ -14460,7 +14424,7 @@
         <v>213</v>
       </c>
       <c r="G164" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H164" s="13">
@@ -14485,7 +14449,7 @@
         <v>447</v>
       </c>
       <c r="G165" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H165" s="13">
@@ -14510,7 +14474,7 @@
         <v>297</v>
       </c>
       <c r="G166" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H166" s="13">
@@ -14535,7 +14499,7 @@
         <v>27</v>
       </c>
       <c r="G167" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H167" s="13">
@@ -14560,7 +14524,7 @@
         <v>75</v>
       </c>
       <c r="G168" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H168" s="13">
@@ -14585,7 +14549,7 @@
         <v>30</v>
       </c>
       <c r="G169" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H169" s="13">
@@ -14610,7 +14574,7 @@
         <v>177</v>
       </c>
       <c r="G170" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H170" s="13">
@@ -14635,7 +14599,7 @@
         <v>159</v>
       </c>
       <c r="G171" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H171" s="13">
@@ -14660,7 +14624,7 @@
         <v>306</v>
       </c>
       <c r="G172" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H172" s="13">
@@ -14685,7 +14649,7 @@
         <v>18</v>
       </c>
       <c r="G173" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H173" s="13">
@@ -14710,7 +14674,7 @@
         <v>240</v>
       </c>
       <c r="G174" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H174" s="13">
@@ -14735,7 +14699,7 @@
         <v>93</v>
       </c>
       <c r="G175" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H175" s="13">
@@ -14760,7 +14724,7 @@
         <v>9</v>
       </c>
       <c r="G176" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H176" s="13">
@@ -14785,7 +14749,7 @@
         <v>219</v>
       </c>
       <c r="G177" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H177" s="13">
@@ -14810,7 +14774,7 @@
         <v>141</v>
       </c>
       <c r="G178" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H178" s="13">
@@ -14835,7 +14799,7 @@
         <v>123</v>
       </c>
       <c r="G179" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H179" s="13">
@@ -14860,7 +14824,7 @@
         <v>51</v>
       </c>
       <c r="G180" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H180" s="13">
@@ -14885,7 +14849,7 @@
         <v>120</v>
       </c>
       <c r="G181" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H181" s="13">
@@ -14910,7 +14874,7 @@
         <v>27</v>
       </c>
       <c r="G182" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H182" s="13">
@@ -14935,7 +14899,7 @@
         <v>204</v>
       </c>
       <c r="G183" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H183" s="13">
@@ -14960,7 +14924,7 @@
         <v>123</v>
       </c>
       <c r="G184" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H184" s="13">
@@ -14985,7 +14949,7 @@
         <v>27</v>
       </c>
       <c r="G185" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H185" s="13">
@@ -15010,7 +14974,7 @@
         <v>177</v>
       </c>
       <c r="G186" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H186" s="13">
@@ -15035,7 +14999,7 @@
         <v>171</v>
       </c>
       <c r="G187" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H187" s="13">
@@ -15060,7 +15024,7 @@
         <v>204</v>
       </c>
       <c r="G188" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H188" s="13">
@@ -15085,7 +15049,7 @@
         <v>276</v>
       </c>
       <c r="G189" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H189" s="13">
@@ -15110,7 +15074,7 @@
         <v>45</v>
       </c>
       <c r="G190" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H190" s="13">
@@ -15135,7 +15099,7 @@
         <v>45</v>
       </c>
       <c r="G191" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H191" s="13">
@@ -15160,7 +15124,7 @@
         <v>177</v>
       </c>
       <c r="G192" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H192" s="13">
@@ -15185,7 +15149,7 @@
         <v>63</v>
       </c>
       <c r="G193" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H193" s="13">
@@ -15210,7 +15174,7 @@
         <v>204</v>
       </c>
       <c r="G194" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H194" s="13">
@@ -15235,7 +15199,7 @@
         <v>195</v>
       </c>
       <c r="G195" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H195" s="13">
@@ -15260,7 +15224,7 @@
         <v>369</v>
       </c>
       <c r="G196" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H196" s="13">
@@ -15285,7 +15249,7 @@
         <v>42</v>
       </c>
       <c r="G197" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H197" s="13">
@@ -15310,7 +15274,7 @@
         <v>81</v>
       </c>
       <c r="G198" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H198" s="13">
@@ -15335,7 +15299,7 @@
         <v>246</v>
       </c>
       <c r="G199" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H199" s="13">
@@ -15360,7 +15324,7 @@
         <v>174</v>
       </c>
       <c r="G200" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H200" s="13">
@@ -15385,7 +15349,7 @@
         <v>81</v>
       </c>
       <c r="G201" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H201" s="13">
@@ -15410,7 +15374,7 @@
         <v>372</v>
       </c>
       <c r="G202" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H202" s="13">
@@ -15435,7 +15399,7 @@
         <v>174</v>
       </c>
       <c r="G203" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H203" s="13">
@@ -15460,7 +15424,7 @@
         <v>84</v>
       </c>
       <c r="G204" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H204" s="13">
@@ -15485,7 +15449,7 @@
         <v>225</v>
       </c>
       <c r="G205" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H205" s="13">
@@ -15510,7 +15474,7 @@
         <v>105</v>
       </c>
       <c r="G206" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H206" s="13">
@@ -15535,7 +15499,7 @@
         <v>225</v>
       </c>
       <c r="G207" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H207" s="13">
@@ -15560,7 +15524,7 @@
         <v>54</v>
       </c>
       <c r="G208" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H208" s="13">
@@ -15585,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H209" s="13">
@@ -15610,7 +15574,7 @@
         <v>171</v>
       </c>
       <c r="G210" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H210" s="13">
@@ -15635,7 +15599,7 @@
         <v>189</v>
       </c>
       <c r="G211" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H211" s="13">
@@ -15660,7 +15624,7 @@
         <v>270</v>
       </c>
       <c r="G212" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H212" s="13">
@@ -15685,7 +15649,7 @@
         <v>63</v>
       </c>
       <c r="G213" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H213" s="13">
@@ -15710,7 +15674,7 @@
         <v>21</v>
       </c>
       <c r="G214" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H214" s="13">
@@ -15735,7 +15699,7 @@
         <v>207</v>
       </c>
       <c r="G215" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H215" s="13">
@@ -15760,7 +15724,7 @@
         <v>96</v>
       </c>
       <c r="G216" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H216" s="13">
@@ -15785,7 +15749,7 @@
         <v>81</v>
       </c>
       <c r="G217" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H217" s="13">
@@ -15810,7 +15774,7 @@
         <v>306</v>
       </c>
       <c r="G218" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H218" s="13">
@@ -15835,7 +15799,7 @@
         <v>279</v>
       </c>
       <c r="G219" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H219" s="13">
@@ -15860,7 +15824,7 @@
         <v>3</v>
       </c>
       <c r="G220" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H220" s="13">
@@ -15885,7 +15849,7 @@
         <v>198</v>
       </c>
       <c r="G221" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H221" s="13">
@@ -15910,7 +15874,7 @@
         <v>249</v>
       </c>
       <c r="G222" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H222" s="13">
@@ -15935,7 +15899,7 @@
         <v>75</v>
       </c>
       <c r="G223" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H223" s="13">
@@ -15960,7 +15924,7 @@
         <v>189</v>
       </c>
       <c r="G224" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H224" s="13">
@@ -15985,7 +15949,7 @@
         <v>87</v>
       </c>
       <c r="G225" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H225" s="13">
@@ -16010,7 +15974,7 @@
         <v>174</v>
       </c>
       <c r="G226" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H226" s="13">
@@ -16035,7 +15999,7 @@
         <v>36</v>
       </c>
       <c r="G227" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H227" s="13">
@@ -16060,7 +16024,7 @@
         <v>60</v>
       </c>
       <c r="G228" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H228" s="13">
@@ -16085,7 +16049,7 @@
         <v>78</v>
       </c>
       <c r="G229" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H229" s="13">
@@ -16110,7 +16074,7 @@
         <v>57</v>
       </c>
       <c r="G230" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H230" s="13">
@@ -16135,7 +16099,7 @@
         <v>45</v>
       </c>
       <c r="G231" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H231" s="13">
@@ -16160,7 +16124,7 @@
         <v>3</v>
       </c>
       <c r="G232" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H232" s="13">
@@ -16185,7 +16149,7 @@
         <v>6</v>
       </c>
       <c r="G233" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H233" s="13">
@@ -16210,7 +16174,7 @@
         <v>21</v>
       </c>
       <c r="G234" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H234" s="13">
@@ -16235,7 +16199,7 @@
         <v>3</v>
       </c>
       <c r="G235" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H235" s="13">
@@ -16260,7 +16224,7 @@
         <v>288</v>
       </c>
       <c r="G236" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H236" s="13">
@@ -16285,7 +16249,7 @@
         <v>30</v>
       </c>
       <c r="G237" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H237" s="13">
@@ -16310,7 +16274,7 @@
         <v>87</v>
       </c>
       <c r="G238" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H238" s="13">
@@ -16335,7 +16299,7 @@
         <v>30</v>
       </c>
       <c r="G239" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H239" s="13">
@@ -16360,7 +16324,7 @@
         <v>168</v>
       </c>
       <c r="G240" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H240" s="13">
@@ -16385,7 +16349,7 @@
         <v>306</v>
       </c>
       <c r="G241" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H241" s="13">
@@ -16410,7 +16374,7 @@
         <v>402</v>
       </c>
       <c r="G242" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H242" s="13">
@@ -16435,7 +16399,7 @@
         <v>327</v>
       </c>
       <c r="G243" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H243" s="13">
@@ -16460,7 +16424,7 @@
         <v>93</v>
       </c>
       <c r="G244" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H244" s="13">
@@ -16485,7 +16449,7 @@
         <v>96</v>
       </c>
       <c r="G245" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H245" s="13">
@@ -16510,7 +16474,7 @@
         <v>27</v>
       </c>
       <c r="G246" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H246" s="13">
@@ -16535,7 +16499,7 @@
         <v>99</v>
       </c>
       <c r="G247" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H247" s="13">
@@ -16560,7 +16524,7 @@
         <v>87</v>
       </c>
       <c r="G248" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H248" s="13">
@@ -16585,7 +16549,7 @@
         <v>288</v>
       </c>
       <c r="G249" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H249" s="13">
@@ -16610,7 +16574,7 @@
         <v>363</v>
       </c>
       <c r="G250" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H250" s="13">
@@ -16635,7 +16599,7 @@
         <v>87</v>
       </c>
       <c r="G251" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H251" s="13">
@@ -16660,7 +16624,7 @@
         <v>150</v>
       </c>
       <c r="G252" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H252" s="13">
@@ -16685,7 +16649,7 @@
         <v>303</v>
       </c>
       <c r="G253" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H253" s="13">
@@ -16710,7 +16674,7 @@
         <v>288</v>
       </c>
       <c r="G254" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H254" s="13">
@@ -16735,7 +16699,7 @@
         <v>75</v>
       </c>
       <c r="G255" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H255" s="13">
@@ -16760,7 +16724,7 @@
         <v>39</v>
       </c>
       <c r="G256" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H256" s="13">
@@ -16785,7 +16749,7 @@
         <v>123</v>
       </c>
       <c r="G257" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H257" s="13">
@@ -16810,7 +16774,7 @@
         <v>36</v>
       </c>
       <c r="G258" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H258" s="13">
@@ -16835,7 +16799,7 @@
         <v>237</v>
       </c>
       <c r="G259" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H259" s="13">
@@ -16860,7 +16824,7 @@
         <v>201</v>
       </c>
       <c r="G260" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H260" s="13">
@@ -16885,7 +16849,7 @@
         <v>48</v>
       </c>
       <c r="G261" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H261" s="13">
@@ -16910,7 +16874,7 @@
         <v>84</v>
       </c>
       <c r="G262" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H262" s="13">
@@ -16935,7 +16899,7 @@
         <v>87</v>
       </c>
       <c r="G263" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H263" s="13">
@@ -16960,7 +16924,7 @@
         <v>312</v>
       </c>
       <c r="G264" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H264" s="13">
@@ -16985,7 +16949,7 @@
         <v>102</v>
       </c>
       <c r="G265" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H265" s="13">
@@ -17010,7 +16974,7 @@
         <v>78</v>
       </c>
       <c r="G266" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H266" s="13">
@@ -17035,7 +16999,7 @@
         <v>117</v>
       </c>
       <c r="G267" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H267" s="13">
@@ -17060,7 +17024,7 @@
         <v>99</v>
       </c>
       <c r="G268" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H268" s="13">
@@ -17085,7 +17049,7 @@
         <v>48</v>
       </c>
       <c r="G269" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H269" s="13">
@@ -17110,7 +17074,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H270" s="13">
@@ -17135,7 +17099,7 @@
         <v>42</v>
       </c>
       <c r="G271" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H271" s="13">
@@ -17160,7 +17124,7 @@
         <v>270</v>
       </c>
       <c r="G272" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H272" s="13">
@@ -17185,7 +17149,7 @@
         <v>150</v>
       </c>
       <c r="G273" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H273" s="13">
@@ -17210,7 +17174,7 @@
         <v>42</v>
       </c>
       <c r="G274" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H274" s="13">
@@ -17235,7 +17199,7 @@
         <v>126</v>
       </c>
       <c r="G275" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H275" s="13">
@@ -17260,7 +17224,7 @@
         <v>6</v>
       </c>
       <c r="G276" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H276" s="13">
@@ -17285,7 +17249,7 @@
         <v>276</v>
       </c>
       <c r="G277" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H277" s="13">
@@ -17310,7 +17274,7 @@
         <v>93</v>
       </c>
       <c r="G278" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H278" s="13">
@@ -17335,7 +17299,7 @@
         <v>246</v>
       </c>
       <c r="G279" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H279" s="13">
@@ -17360,7 +17324,7 @@
         <v>3</v>
       </c>
       <c r="G280" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H280" s="13">
@@ -17385,7 +17349,7 @@
         <v>63</v>
       </c>
       <c r="G281" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H281" s="13">
@@ -17410,7 +17374,7 @@
         <v>246</v>
       </c>
       <c r="G282" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H282" s="13">
@@ -17435,7 +17399,7 @@
         <v>120</v>
       </c>
       <c r="G283" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H283" s="13">
@@ -17460,7 +17424,7 @@
         <v>348</v>
       </c>
       <c r="G284" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H284" s="13">
@@ -17485,7 +17449,7 @@
         <v>126</v>
       </c>
       <c r="G285" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H285" s="13">
@@ -17510,7 +17474,7 @@
         <v>123</v>
       </c>
       <c r="G286" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H286" s="13">
@@ -17535,7 +17499,7 @@
         <v>45</v>
       </c>
       <c r="G287" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H287" s="13">
@@ -17560,7 +17524,7 @@
         <v>126</v>
       </c>
       <c r="G288" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H288" s="13">
@@ -17585,7 +17549,7 @@
         <v>72</v>
       </c>
       <c r="G289" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H289" s="13">
@@ -17610,7 +17574,7 @@
         <v>135</v>
       </c>
       <c r="G290" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H290" s="13">
@@ -17635,7 +17599,7 @@
         <v>24</v>
       </c>
       <c r="G291" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H291" s="13">
@@ -17660,7 +17624,7 @@
         <v>117</v>
       </c>
       <c r="G292" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>5.79</v>
       </c>
       <c r="H292" s="13">
@@ -17685,7 +17649,7 @@
         <v>51</v>
       </c>
       <c r="G293" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>7.16</v>
       </c>
       <c r="H293" s="13">
@@ -17710,7 +17674,7 @@
         <v>36</v>
       </c>
       <c r="G294" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>10.38</v>
       </c>
       <c r="H294" s="13">
@@ -17735,7 +17699,7 @@
         <v>144</v>
       </c>
       <c r="G295" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H295" s="13">
@@ -17760,7 +17724,7 @@
         <v>114</v>
       </c>
       <c r="G296" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H296" s="13">
@@ -17785,7 +17749,7 @@
         <v>54</v>
       </c>
       <c r="G297" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>11.7</v>
       </c>
       <c r="H297" s="13">
@@ -17810,7 +17774,7 @@
         <v>333</v>
       </c>
       <c r="G298" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H298" s="13">
@@ -17835,7 +17799,7 @@
         <v>366</v>
       </c>
       <c r="G299" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H299" s="13">
@@ -17860,7 +17824,7 @@
         <v>303</v>
       </c>
       <c r="G300" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>9.77</v>
       </c>
       <c r="H300" s="13">
@@ -17885,7 +17849,7 @@
         <v>126</v>
       </c>
       <c r="G301" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H301" s="13">
@@ -17910,7 +17874,7 @@
         <v>231</v>
       </c>
       <c r="G302" s="10">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>14.49</v>
       </c>
       <c r="H302" s="13">
@@ -17935,7 +17899,7 @@
         <v>102</v>
       </c>
       <c r="G303" s="15">
-        <f>LOOKUP(data[[#This Row],[Product]],[1]!products[Product],[1]!products[Cost per unit])</f>
+        <f>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</f>
         <v>12.37</v>
       </c>
       <c r="H303" s="18">
@@ -18037,19 +18001,19 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65">
+      <c r="M9" s="62"/>
+      <c r="N9" s="62">
         <f>SUMIFS(data[Amount],data[Sales Person],$L9,data[Geography],$D$4)</f>
         <v>18928</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="62">
         <f>SUMIFS(data[Units],data[Sales Person],$L9,data[Geography],$D$4)</f>
         <v>738</v>
       </c>
-      <c r="P9" s="66">
+      <c r="P9" s="63">
         <f>IF(N9&gt;12000,1,-1)</f>
         <v>1</v>
       </c>
@@ -18058,20 +18022,20 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67">
+      <c r="M10" s="64"/>
+      <c r="N10" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L10,data[Geography],$D$4)</f>
         <v>15141</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L10,data[Geography],$D$4)</f>
         <v>1182</v>
       </c>
-      <c r="P10" s="68">
-        <f t="shared" ref="L10:P18" si="0">IF(N10&gt;12000,1,-1)</f>
+      <c r="P10" s="65">
+        <f t="shared" ref="P10:P18" si="0">IF(N10&gt;12000,1,-1)</f>
         <v>1</v>
       </c>
       <c r="Y10" s="34" t="s">
@@ -18087,169 +18051,169 @@
       <c r="G11" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67">
+      <c r="M11" s="64"/>
+      <c r="N11" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L11,data[Geography],$D$4)</f>
         <v>6069</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L11,data[Geography],$D$4)</f>
         <v>24</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="65">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65">
+      <c r="E12" s="62"/>
+      <c r="F12" s="62">
         <f>SUMIFS(data[Amount],data[Geography],D$4)</f>
         <v>168679</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="62">
         <f>AVERAGEIFS(data[Amount],data[Geography],D$4)</f>
         <v>3666.9347826086955</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67">
+      <c r="M12" s="64"/>
+      <c r="N12" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L12,data[Geography],$D$4)</f>
         <v>18865</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L12,data[Geography],$D$4)</f>
         <v>915</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67">
+      <c r="E13" s="64"/>
+      <c r="F13" s="64">
         <f>SUMIFS(data[[Cost ]],data[Geography],D$4)</f>
         <v>72342.209999999992</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="64">
         <f>AVERAGEIFS(data[[Cost ]],data[Geography],D$4)</f>
         <v>1572.6567391304345</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="L13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67">
+      <c r="M13" s="64"/>
+      <c r="N13" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L13,data[Geography],$D$4)</f>
         <v>15820</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L13,data[Geography],$D$4)</f>
         <v>711</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67">
+      <c r="M14" s="64"/>
+      <c r="N14" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L14,data[Geography],$D$4)</f>
         <v>25221</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L14,data[Geography],$D$4)</f>
         <v>288</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="65">
         <f>IF(N14&gt;12000,1,-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L15,data[Geography],$D$4)</f>
         <v>8841</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L15,data[Geography],$D$4)</f>
         <v>303</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="65">
         <f>IF(N15&gt;12000,1,-1)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67">
+      <c r="M16" s="64"/>
+      <c r="N16" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L16,data[Geography],$D$4)</f>
         <v>24983</v>
       </c>
-      <c r="O16" s="67">
+      <c r="O16" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L16,data[Geography],$D$4)</f>
         <v>477</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67">
+      <c r="M17" s="64"/>
+      <c r="N17" s="64">
         <f>SUMIFS(data[Amount],data[Sales Person],$L17,data[Geography],$D$4)</f>
         <v>14714</v>
       </c>
-      <c r="O17" s="67">
+      <c r="O17" s="64">
         <f>SUMIFS(data[Units],data[Sales Person],$L17,data[Geography],$D$4)</f>
         <v>915</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="12:16" x14ac:dyDescent="0.3">
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65">
+      <c r="M18" s="62"/>
+      <c r="N18" s="62">
         <f>SUMIFS(data[Amount],data[Sales Person],$L18,data[Geography],$D$4)</f>
         <v>20097</v>
       </c>
-      <c r="O18" s="65">
+      <c r="O18" s="62">
         <f>SUMIFS(data[Units],data[Sales Person],$L18,data[Geography],$D$4)</f>
         <v>711</v>
       </c>
-      <c r="P18" s="66">
+      <c r="P18" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -18336,7 +18300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -18351,7 +18315,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="69"/>
+      <c r="A1" s="66"/>
       <c r="B1" s="45" t="s">
         <v>96</v>
       </c>
@@ -18386,7 +18350,7 @@
       <c r="E4" s="56">
         <v>-1024.6000000000004</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="67">
         <v>-0.57626546681664814</v>
       </c>
     </row>
@@ -18403,7 +18367,7 @@
       <c r="E5" s="56">
         <v>-1597.0500000000002</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="67">
         <v>-0.4694444444444445</v>
       </c>
     </row>
@@ -18420,7 +18384,7 @@
       <c r="E6" s="56">
         <v>-665.42000000000189</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="67">
         <v>-4.1294526498696901E-2</v>
       </c>
     </row>
@@ -18437,7 +18401,7 @@
       <c r="E7" s="56">
         <v>-153</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="67">
         <v>-2.2280471821756225E-2</v>
       </c>
     </row>
@@ -18454,7 +18418,7 @@
       <c r="E8" s="56">
         <v>2100.9399999999996</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="67">
         <v>0.34340307289964034</v>
       </c>
     </row>
@@ -18471,7 +18435,7 @@
       <c r="E9" s="56">
         <v>1758.26</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="67">
         <v>0.49058593750000001</v>
       </c>
     </row>
@@ -18488,7 +18452,7 @@
       <c r="E10" s="56">
         <v>7108.47</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="67">
         <v>0.59805401312468454</v>
       </c>
     </row>
@@ -18505,7 +18469,7 @@
       <c r="E11" s="56">
         <v>7679.4199999999992</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="67">
         <v>0.6265334094802969</v>
       </c>
     </row>
@@ -18522,7 +18486,7 @@
       <c r="E12" s="56">
         <v>6478.6</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="67">
         <v>0.63960904334090241</v>
       </c>
     </row>
@@ -18539,7 +18503,7 @@
       <c r="E13" s="56">
         <v>3508.4</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="67">
         <v>0.64092071611253199</v>
       </c>
     </row>
@@ -18556,7 +18520,7 @@
       <c r="E14" s="56">
         <v>7248.2199999999993</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="67">
         <v>0.69261538461538452</v>
       </c>
     </row>
@@ -18573,7 +18537,7 @@
       <c r="E15" s="56">
         <v>10377.790000000001</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="67">
         <v>0.71585776367524323</v>
       </c>
     </row>
@@ -18590,7 +18554,7 @@
       <c r="E16" s="56">
         <v>6441.61</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="67">
         <v>0.71613229571984427</v>
       </c>
     </row>
@@ -18607,7 +18571,7 @@
       <c r="E17" s="56">
         <v>6398.08</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="67">
         <v>0.72483063328424158</v>
       </c>
     </row>
@@ -18624,7 +18588,7 @@
       <c r="E18" s="56">
         <v>3461.3</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="67">
         <v>0.72716386554621848</v>
       </c>
     </row>
@@ -18641,7 +18605,7 @@
       <c r="E19" s="56">
         <v>6060.4400000000005</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="67">
         <v>0.73123069498069504</v>
       </c>
     </row>
@@ -18658,7 +18622,7 @@
       <c r="E20" s="56">
         <v>14277.130000000001</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="67">
         <v>0.86350127011007627</v>
       </c>
     </row>
@@ -18675,7 +18639,7 @@
       <c r="E21" s="56">
         <v>2218.8000000000002</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="67">
         <v>0.87319952774498233</v>
       </c>
     </row>
@@ -18692,7 +18656,7 @@
       <c r="E22" s="56">
         <v>12344.82</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="67">
         <v>0.8974787350054525</v>
       </c>
     </row>
@@ -18709,7 +18673,7 @@
       <c r="E23" s="56">
         <v>2314.58</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="67">
         <v>0.96120431893687708</v>
       </c>
     </row>
@@ -18726,7 +18690,7 @@
       <c r="E24" s="56">
         <v>96336.790000000008</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="67">
         <v>0.57112497702737153</v>
       </c>
     </row>
@@ -18783,14 +18747,14 @@
       <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="68"/>
+      <c r="E4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="68"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="M4" s="23"/>
@@ -25510,10 +25474,10 @@
       <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="36" t="s">
         <v>5</v>
       </c>

--- a/Project/Excel Work Sample/Report Analysis.xlsx
+++ b/Project/Excel Work Sample/Report Analysis.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlchart.0" hidden="1">'6'!$N$5:$N$304</definedName>
     <definedName name="_xlchart.1" hidden="1">'6'!$P$5:$P$304</definedName>
     <definedName name="_xlchart.2" hidden="1">'6'!$P$5:$P$304</definedName>
-    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata" hidden="1">data[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata1" hidden="1">data[]</definedName>
     <definedName name="Slicer_Geography">#N/A</definedName>
     <definedName name="Slicer_Geography1">#N/A</definedName>
     <definedName name="Slicer_Sales_Person">#N/A</definedName>
@@ -81,7 +81,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="data" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_NewMicrosoftExcelWorksheet.xlsxdata1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -889,29 +889,6 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1321,6 +1298,29 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -9012,7 +9012,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9021,14 +9021,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -9147,6 +9147,111 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C4:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="1" filterVal="1"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I4:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -9239,111 +9344,6 @@
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <top10 top="0" val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C4:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="11">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="1" filterVal="1"/>
         </filterColumn>
       </autoFilter>
     </filter>
@@ -9842,10 +9842,10 @@
     <tableColumn id="3" name="Product" dataDxfId="28"/>
     <tableColumn id="4" name="Amount" dataDxfId="27"/>
     <tableColumn id="5" name="Units" dataDxfId="26"/>
-    <tableColumn id="6" name="Cost per Unit" dataDxfId="0">
+    <tableColumn id="6" name="Cost per Unit" dataDxfId="25">
       <calculatedColumnFormula>LOOKUP(data[[#This Row],[Product]],products[Product],products[Cost per unit])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cost " dataDxfId="25">
+    <tableColumn id="7" name="Cost " dataDxfId="24">
       <calculatedColumnFormula>data[[#This Row],[Cost per Unit]]*data[[#This Row],[Units]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9854,40 +9854,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="products" displayName="products" ref="S3:T25" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="products" displayName="products" ref="S3:T25" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="S3:T25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Cost per unit" dataDxfId="23"/>
+    <tableColumn id="2" name="Cost per unit" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="data3" displayName="data3" ref="B3:G303" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="data3" displayName="data3" ref="B3:G303" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="6">
-    <tableColumn id="1" name="Sales Person" dataDxfId="18"/>
-    <tableColumn id="2" name="Geography" dataDxfId="17"/>
-    <tableColumn id="3" name="Product" dataDxfId="16"/>
-    <tableColumn id="4" name="Amount" dataDxfId="15"/>
-    <tableColumn id="7" name="Bar" dataDxfId="14">
+    <tableColumn id="1" name="Sales Person" dataDxfId="17"/>
+    <tableColumn id="2" name="Geography" dataDxfId="16"/>
+    <tableColumn id="3" name="Product" dataDxfId="15"/>
+    <tableColumn id="4" name="Amount" dataDxfId="14"/>
+    <tableColumn id="7" name="Bar" dataDxfId="13">
       <calculatedColumnFormula>data3[[#This Row],[Amount]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Units" dataDxfId="13"/>
+    <tableColumn id="5" name="Units" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="data4" displayName="data4" ref="M4:Q304" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="data4" displayName="data4" ref="M4:Q304" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="Sales Person" dataDxfId="5"/>
-    <tableColumn id="2" name="Geography" dataDxfId="4"/>
-    <tableColumn id="3" name="Product" dataDxfId="3"/>
-    <tableColumn id="4" name="Amount" dataDxfId="2"/>
-    <tableColumn id="5" name="Units" dataDxfId="1"/>
+    <tableColumn id="1" name="Sales Person" dataDxfId="4"/>
+    <tableColumn id="2" name="Geography" dataDxfId="3"/>
+    <tableColumn id="3" name="Product" dataDxfId="2"/>
+    <tableColumn id="4" name="Amount" dataDxfId="1"/>
+    <tableColumn id="5" name="Units" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10158,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
